--- a/output/Результат.xlsx
+++ b/output/Результат.xlsx
@@ -18,22 +18,22 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>0.08575586070772259</t>
-  </si>
-  <si>
-    <t>0.34197419404755963</t>
-  </si>
-  <si>
-    <t>0.9739059030803672</t>
-  </si>
-  <si>
-    <t>0.5618782570667403</t>
-  </si>
-  <si>
-    <t>0.494707972160009</t>
-  </si>
-  <si>
-    <t>1.9953868271365356</t>
+    <t>0.06589151973706447</t>
+  </si>
+  <si>
+    <t>0.3271327708184682</t>
+  </si>
+  <si>
+    <t>0.9409871444977985</t>
+  </si>
+  <si>
+    <t>0.5858250117744266</t>
+  </si>
+  <si>
+    <t>0.5137548332022782</t>
+  </si>
+  <si>
+    <t>2.0422936355198744</t>
   </si>
   <si>
     <t>1.9783054874278605</t>
@@ -45,34 +45,34 @@
     <t>14.539280728964417</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>6.552068306815342</t>
-  </si>
-  <si>
-    <t>1.446623694918945</t>
-  </si>
-  <si>
-    <t>2.0488497100441903</t>
-  </si>
-  <si>
-    <t>[0.0747432492322531; 0.09676847218319208]</t>
-  </si>
-  <si>
-    <t>[0.5940992997905145; 0.6022857549842783]</t>
-  </si>
-  <si>
-    <t>[2.1786025268986586; 2.2969361153933043]</t>
-  </si>
-  <si>
-    <t>0.315707175764358</t>
-  </si>
-  <si>
-    <t>0.24473597771866823</t>
-  </si>
-  <si>
-    <t>3.981568589910011</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>8.890749737024136</t>
+  </si>
+  <si>
+    <t>1.5704780414291477</t>
+  </si>
+  <si>
+    <t>2.170373577855667</t>
+  </si>
+  <si>
+    <t>[0.05135739411275271; 0.08042564536137624]</t>
+  </si>
+  <si>
+    <t>[0.5828354550215608; 0.593912588778183]</t>
+  </si>
+  <si>
+    <t>[2.091034581833622; 2.2463572018792934]</t>
+  </si>
+  <si>
+    <t>0.343190944420507</t>
+  </si>
+  <si>
+    <t>0.2639440286387007</t>
+  </si>
+  <si>
+    <t>4.170963293684985</t>
   </si>
   <si>
     <t>0.9832735722884536</t>
@@ -142,112 +142,112 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -265,41 +265,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>0.315707175764358</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>0.010352502365498943</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.29473446657327257</v>
+      <c r="A2" t="n">
+        <v>0.3431909444205071</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.020070083390752037</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.22952248428471528</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>0.010352502365498943</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>0.0436149727015632</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.01230734702769087</v>
+      <c r="A3" t="n">
+        <v>0.020070083390752037</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04983710527381141</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.046778469293513376</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>0.29473446657327257</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>0.01230734702769087</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>9.112969069579835</v>
+      <c r="A4" t="n">
+        <v>0.22952248428471528</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.046778469293513376</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.798676612371478</v>
       </c>
     </row>
   </sheetData>

--- a/output/Результат.xlsx
+++ b/output/Результат.xlsx
@@ -13,81 +13,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>NaN</t>
   </si>
   <si>
-    <t>0.06589151973706447</t>
-  </si>
-  <si>
-    <t>0.3271327708184682</t>
-  </si>
-  <si>
-    <t>0.9409871444977985</t>
-  </si>
-  <si>
-    <t>0.5858250117744266</t>
-  </si>
-  <si>
-    <t>0.5137548332022782</t>
-  </si>
-  <si>
-    <t>2.0422936355198744</t>
-  </si>
-  <si>
-    <t>1.9783054874278605</t>
-  </si>
-  <si>
-    <t>1.9867432540933898</t>
-  </si>
-  <si>
-    <t>14.539280728964417</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>8.890749737024136</t>
-  </si>
-  <si>
-    <t>1.5704780414291477</t>
-  </si>
-  <si>
-    <t>2.170373577855667</t>
-  </si>
-  <si>
-    <t>[0.05135739411275271; 0.08042564536137624]</t>
-  </si>
-  <si>
-    <t>[0.5828354550215608; 0.593912588778183]</t>
-  </si>
-  <si>
-    <t>[2.091034581833622; 2.2463572018792934]</t>
-  </si>
-  <si>
-    <t>0.343190944420507</t>
-  </si>
-  <si>
-    <t>0.2639440286387007</t>
-  </si>
-  <si>
-    <t>4.170963293684985</t>
-  </si>
-  <si>
-    <t>0.9832735722884536</t>
-  </si>
-  <si>
-    <t>0.9917113389539829</t>
-  </si>
-  <si>
-    <t>10.625527530777841</t>
-  </si>
-  <si>
-    <t>-0.9950319151394069</t>
-  </si>
-  <si>
-    <t>-3.9137531981865763</t>
+    <t>0.06124765865504738</t>
+  </si>
+  <si>
+    <t>0.33684616522285543</t>
+  </si>
+  <si>
+    <t>0.8661138448989173</t>
+  </si>
+  <si>
+    <t>0.5876737941710403</t>
+  </si>
+  <si>
+    <t>0.5161955755551935</t>
+  </si>
+  <si>
+    <t>1.85802707411246</t>
+  </si>
+  <si>
+    <t>1.9849040773697197</t>
+  </si>
+  <si>
+    <t>16.025876639890342</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>9.595040970967965</t>
+  </si>
+  <si>
+    <t>1.5324371444563767</t>
+  </si>
+  <si>
+    <t>2.145245783860328</t>
+  </si>
+  <si>
+    <t>[0.04972946394271494; 0.07276585336737981]</t>
+  </si>
+  <si>
+    <t>[0.6086846434020186; 0.6162047001793085]</t>
+  </si>
+  <si>
+    <t>[1.868547631138047; 1.9807507773640374]</t>
+  </si>
+  <si>
+    <t>0.3453604883553862</t>
+  </si>
+  <si>
+    <t>0.2664578722227574</t>
+  </si>
+  <si>
+    <t>3.452264608134909</t>
+  </si>
+  <si>
+    <t>0.9869154384359717</t>
+  </si>
+  <si>
+    <t>9.158010593701611</t>
+  </si>
+  <si>
+    <t>-0.997988638933748</t>
+  </si>
+  <si>
+    <t>-6.86786604618873</t>
   </si>
   <si>
     <t>Коэффициенты ковариации</t>
@@ -179,76 +173,76 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -266,40 +260,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3431909444205071</v>
+        <v>0.34536048835538635</v>
       </c>
       <c r="B2" t="n">
-        <v>0.020070083390752037</v>
+        <v>0.0016100204879278932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22952248428471528</v>
+        <v>-0.22039843607673437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.020070083390752037</v>
+        <v>0.0016100204879278932</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04983710527381141</v>
+        <v>0.03680324101681082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.046778469293513376</v>
+        <v>0.04992740272224475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.22952248428471528</v>
+        <v>-0.22039843607673437</v>
       </c>
       <c r="B4" t="n">
-        <v>0.046778469293513376</v>
+        <v>0.04992740272224475</v>
       </c>
       <c r="C4" t="n">
-        <v>9.798676612371478</v>
+        <v>8.19320641626464</v>
       </c>
     </row>
   </sheetData>
